--- a/biology/Médecine/Cul-de-sac_de_Douglas/Cul-de-sac_de_Douglas.xlsx
+++ b/biology/Médecine/Cul-de-sac_de_Douglas/Cul-de-sac_de_Douglas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cul-de-sac de Douglas, du nom de James Douglas (1675-1742), est un repli du péritoine situé entre le rectum et l'utérus, formant un cul-de-sac. Chez l'homme, ce cul-de-sac est simplement l'extrémité inférieure de la cavité péritonéale, entre la face postérieure de la vessie et la face ventrale du rectum.
-Son nouveau nom est cul-de-sac recto-utérin chez la femme, et cul-de-sac recto-vésical chez l'homme[1] ; ou encore excavatio recto-uterina et excavatio recto-vesicalis selon la terminologie anatomique[1],[2].
+Son nouveau nom est cul-de-sac recto-utérin chez la femme, et cul-de-sac recto-vésical chez l'homme ; ou encore excavatio recto-uterina et excavatio recto-vesicalis selon la terminologie anatomique,.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le point le plus bas de la cavité péritonéale. Le cul-de-sac de Douglas est l'endroit où s'accumulent les liquides qui peuvent se trouver par accident dans cette cavité péritonéale (sang, pus, etc.).
-Chez l'homme, il est plus ou moins divisé par les vésicules séminales en cul-de-sac antérieur vésico-séminal et cul de sac postérieur sémino-rectal. Chez la femme, il est nettement séparé des fossettes ovariennes par la saillie des ligaments utéro-sacrés[2].
-Cet endroit du corps est accessible par le toucher rectal ou vaginal. Dans les deux sexes, le fond du cul-de-sac de Douglas est à 7 mm environ au-dessus de l'orifice anal[2].
+Chez l'homme, il est plus ou moins divisé par les vésicules séminales en cul-de-sac antérieur vésico-séminal et cul de sac postérieur sémino-rectal. Chez la femme, il est nettement séparé des fossettes ovariennes par la saillie des ligaments utéro-sacrés.
+Cet endroit du corps est accessible par le toucher rectal ou vaginal. Dans les deux sexes, le fond du cul-de-sac de Douglas est à 7 mm environ au-dessus de l'orifice anal.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au toucher vaginal, une douleur vive et localisée, à la palpation profonde du cul-de-sac recto-utérin, réalisait historiquement le signe ou le cri du Douglas. Elle indique une inflammation péritonéale devant faire suspecter une péritonite, une rupture de grossesse extra-utérine, etc.
 On nomme « élytrocèle » une descente d'organes (ptôse intestinale) qui fait hernie dans le cul-de-sac de Douglas, en repoussant la paroi vaginale postérieure, jusqu'à travers la vulve.
